--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Bdkrb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Bdkrb1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5678443333333334</v>
+        <v>0.2690646666666667</v>
       </c>
       <c r="N2">
-        <v>1.703533</v>
+        <v>0.807194</v>
       </c>
       <c r="O2">
-        <v>0.1482691575750755</v>
+        <v>0.0885168346903475</v>
       </c>
       <c r="P2">
-        <v>0.1717901181905219</v>
+        <v>0.09916786583441374</v>
       </c>
       <c r="Q2">
-        <v>0.08611397171288891</v>
+        <v>0.04080383607644445</v>
       </c>
       <c r="R2">
-        <v>0.7750257454160001</v>
+        <v>0.367234524688</v>
       </c>
       <c r="S2">
-        <v>0.1482691575750755</v>
+        <v>0.0885168346903475</v>
       </c>
       <c r="T2">
-        <v>0.1717901181905219</v>
+        <v>0.09916786583441374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>4.138253000000001</v>
       </c>
       <c r="O3">
-        <v>0.3601781040593455</v>
+        <v>0.4538005197112895</v>
       </c>
       <c r="P3">
-        <v>0.4173156445882069</v>
+        <v>0.5084053130881303</v>
       </c>
       <c r="Q3">
         <v>0.2091896087617778</v>
@@ -638,10 +638,10 @@
         <v>1.882706478856</v>
       </c>
       <c r="S3">
-        <v>0.3601781040593455</v>
+        <v>0.4538005197112895</v>
       </c>
       <c r="T3">
-        <v>0.4173156445882069</v>
+        <v>0.5084053130881303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.159923</v>
+        <v>0.130073</v>
       </c>
       <c r="N4">
-        <v>0.4797690000000001</v>
+        <v>0.390219</v>
       </c>
       <c r="O4">
-        <v>0.04175730406199141</v>
+        <v>0.04279138684880302</v>
       </c>
       <c r="P4">
-        <v>0.04838155363832018</v>
+        <v>0.04794037794884388</v>
       </c>
       <c r="Q4">
-        <v>0.02425242956533334</v>
+        <v>0.01972565716533333</v>
       </c>
       <c r="R4">
-        <v>0.218271866088</v>
+        <v>0.177530914488</v>
       </c>
       <c r="S4">
-        <v>0.04175730406199141</v>
+        <v>0.04279138684880302</v>
       </c>
       <c r="T4">
-        <v>0.04838155363832018</v>
+        <v>0.04794037794884388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.573101</v>
+        <v>0.9794285</v>
       </c>
       <c r="N5">
-        <v>3.146202</v>
+        <v>1.958857</v>
       </c>
       <c r="O5">
-        <v>0.4107505285495066</v>
+        <v>0.3222121718899608</v>
       </c>
       <c r="P5">
-        <v>0.3172738147316525</v>
+        <v>0.2406554907058306</v>
       </c>
       <c r="Q5">
-        <v>0.238561815384</v>
+        <v>0.1485309849773334</v>
       </c>
       <c r="R5">
-        <v>1.431370892304</v>
+        <v>0.891185909864</v>
       </c>
       <c r="S5">
-        <v>0.4107505285495066</v>
+        <v>0.3222121718899608</v>
       </c>
       <c r="T5">
-        <v>0.3172738147316525</v>
+        <v>0.2406554907058306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.149535</v>
+        <v>0.2817166666666667</v>
       </c>
       <c r="N6">
-        <v>0.448605</v>
+        <v>0.84515</v>
       </c>
       <c r="O6">
-        <v>0.03904490575408093</v>
+        <v>0.09267908685959904</v>
       </c>
       <c r="P6">
-        <v>0.04523886885129848</v>
+        <v>0.1038309524227816</v>
       </c>
       <c r="Q6">
-        <v>0.02267708244</v>
+        <v>0.04272252031111112</v>
       </c>
       <c r="R6">
-        <v>0.20409374196</v>
+        <v>0.3845026828</v>
       </c>
       <c r="S6">
-        <v>0.03904490575408093</v>
+        <v>0.09267908685959904</v>
       </c>
       <c r="T6">
-        <v>0.04523886885129848</v>
+        <v>0.1038309524227816</v>
       </c>
     </row>
   </sheetData>
